--- a/Companies/Linkedin/Linkedin Sheet.xlsx
+++ b/Companies/Linkedin/Linkedin Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derrickluo/Documents/_Leetcode/optimizedLeetcode/Companies/Linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EBCB25-AAA8-FA47-AE91-23ABB5B02A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5C995-9E33-A74A-B04A-18D3FA6A2F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{99475510-ECB8-8340-A7EC-613A4E5089A7}"/>
+    <workbookView xWindow="-19040" yWindow="12400" windowWidth="21600" windowHeight="17440" xr2:uid="{99475510-ECB8-8340-A7EC-613A4E5089A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>Shortest Word Distance II</t>
   </si>
@@ -701,7 +701,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1526,8 +1526,8 @@
       <c r="C55" s="3">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>1</v>
+      <c r="D55" s="4">
+        <v>4</v>
       </c>
       <c r="E55" s="5"/>
     </row>
